--- a/fast_slow_chargers_2022.xlsx
+++ b/fast_slow_chargers_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e269ce536976a1eb/GoodNotes/S3 - BEFD/Final Project/Potential Projects/Lithium/Datasets/Mario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{C90D7BD5-CE1F-4906-8213-6203EECB7FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF047DC7-28A4-46BE-9DB0-DF54C308D939}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{C90D7BD5-CE1F-4906-8213-6203EECB7FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6A3EDFE-BFE2-47BE-BE4C-144E50DF0531}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>China</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>Fast</t>
   </si>
   <si>
@@ -40,7 +37,10 @@
     <t>Europe</t>
   </si>
   <si>
-    <t>Other countries</t>
+    <t>United_States</t>
+  </si>
+  <si>
+    <t>Other_countries</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -459,13 +459,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -481,7 +481,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>371000</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>100000</v>
